--- a/biology/Botanique/Renoncule_flammette/Renoncule_flammette.xlsx
+++ b/biology/Botanique/Renoncule_flammette/Renoncule_flammette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus flammula
 La renoncule flammette (Ranunculus flammula), la petite douve ou la petite flamme, est une espèce de plante herbacée de la famille des Renonculacées qui pousse dans les milieux humides.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se distingue[De quoi ?] notamment par ses feuilles entières, lancéolées[réf. nécessaire].
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renoncule_flammette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renoncule_flammette</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-octobre
 Inflorescence : cyme unipare hélicoïde
@@ -536,36 +585,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Renoncule_flammette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Renoncule_flammette</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sous-espèce</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ranunculus flammula L. subsp. flammula. La sous-espèce flammula possède plusieurs synonymes.</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,12 +606,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ranunculus flammula L. subsp. flammula. La sous-espèce flammula possède plusieurs synonymes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renoncule_flammette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renoncule_flammette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les herbiers de Renoncule flammette sont bioindicateurs d'une bonne qualité de l'eau ; Ils sont un abri et un support pour de nombreuses espèces tels qu'amphibiens (là où ils n'ont pas disparu) et de nombreux invertébrés dont libellules[1] dans les fleuves et grandes rivières, et jusque dans les ruisseaux.  La Renoncule flammette est par exemple l'une des 3 plantes (avec le rubanier et l'Ache Apium nodiflorum) identifiée par J. Haury et JL Baglinière de l'INRA en 1990 comme statistiquement reliée à une présence accrue des alevins de truites entre 0 et un an (quand le substrat n'est pas trop fin) ;  de même  pour les truitelles de 1 an (mais alors associées à un plus grand nombre d'autres plantes[2]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les herbiers de Renoncule flammette sont bioindicateurs d'une bonne qualité de l'eau ; Ils sont un abri et un support pour de nombreuses espèces tels qu'amphibiens (là où ils n'ont pas disparu) et de nombreux invertébrés dont libellules dans les fleuves et grandes rivières, et jusque dans les ruisseaux.  La Renoncule flammette est par exemple l'une des 3 plantes (avec le rubanier et l'Ache Apium nodiflorum) identifiée par J. Haury et JL Baglinière de l'INRA en 1990 comme statistiquement reliée à une présence accrue des alevins de truites entre 0 et un an (quand le substrat n'est pas trop fin) ;  de même  pour les truitelles de 1 an (mais alors associées à un plus grand nombre d'autres plantes).
 </t>
         </is>
       </c>
